--- a/201025_Results_Cali/MNL/mnl_cali_OR.xlsx
+++ b/201025_Results_Cali/MNL/mnl_cali_OR.xlsx
@@ -398,7 +398,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -407,25 +407,25 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.067</v>
+        <v>10.963</v>
       </c>
       <c r="D2">
-        <v>0.003</v>
+        <v>1.03</v>
       </c>
       <c r="E2">
-        <v>1.435</v>
+        <v>116.736</v>
       </c>
       <c r="F2">
-        <v>-1.729</v>
+        <v>1.984</v>
       </c>
       <c r="G2">
-        <v>0.0838</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -434,25 +434,25 @@
         </is>
       </c>
       <c r="C3">
-        <v>1.581</v>
+        <v>0.551</v>
       </c>
       <c r="D3">
-        <v>0.479</v>
+        <v>0.247</v>
       </c>
       <c r="E3">
-        <v>5.226</v>
+        <v>1.233</v>
       </c>
       <c r="F3">
-        <v>0.751</v>
+        <v>-1.45</v>
       </c>
       <c r="G3">
-        <v>0.4524</v>
+        <v>0.1472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -461,25 +461,25 @@
         </is>
       </c>
       <c r="C4">
-        <v>2.538</v>
+        <v>3.361</v>
       </c>
       <c r="D4">
-        <v>0.798</v>
+        <v>1.303</v>
       </c>
       <c r="E4">
-        <v>8.077</v>
+        <v>8.673999999999999</v>
       </c>
       <c r="F4">
-        <v>1.577</v>
+        <v>2.507</v>
       </c>
       <c r="G4">
-        <v>0.1148</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -488,25 +488,25 @@
         </is>
       </c>
       <c r="C5">
-        <v>5.853</v>
+        <v>1.778</v>
       </c>
       <c r="D5">
-        <v>1.229</v>
+        <v>0.656</v>
       </c>
       <c r="E5">
-        <v>27.872</v>
+        <v>4.819</v>
       </c>
       <c r="F5">
-        <v>2.219</v>
+        <v>1.131</v>
       </c>
       <c r="G5">
-        <v>0.0265</v>
+        <v>0.2582</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -515,25 +515,25 @@
         </is>
       </c>
       <c r="C6">
-        <v>15.619</v>
+        <v>0.432</v>
       </c>
       <c r="D6">
-        <v>3.213</v>
+        <v>0.151</v>
       </c>
       <c r="E6">
-        <v>75.916</v>
+        <v>1.234</v>
       </c>
       <c r="F6">
-        <v>3.407</v>
+        <v>-1.567</v>
       </c>
       <c r="G6">
-        <v>0.0007</v>
+        <v>0.1172</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -542,25 +542,25 @@
         </is>
       </c>
       <c r="C7">
-        <v>3.185</v>
+        <v>1.614</v>
       </c>
       <c r="D7">
-        <v>0.701</v>
+        <v>0.652</v>
       </c>
       <c r="E7">
-        <v>14.478</v>
+        <v>3.995</v>
       </c>
       <c r="F7">
-        <v>1.5</v>
+        <v>1.035</v>
       </c>
       <c r="G7">
-        <v>0.1337</v>
+        <v>0.3008</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -569,25 +569,25 @@
         </is>
       </c>
       <c r="C8">
-        <v>24.623</v>
+        <v>0.495</v>
       </c>
       <c r="D8">
-        <v>3.353</v>
+        <v>0.103</v>
       </c>
       <c r="E8">
-        <v>180.807</v>
+        <v>2.386</v>
       </c>
       <c r="F8">
-        <v>3.149</v>
+        <v>-0.876</v>
       </c>
       <c r="G8">
-        <v>0.0016</v>
+        <v>0.3808</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -596,25 +596,25 @@
         </is>
       </c>
       <c r="C9">
-        <v>15.655</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D9">
-        <v>2.785</v>
+        <v>0.02</v>
       </c>
       <c r="E9">
-        <v>88.012</v>
+        <v>0.365</v>
       </c>
       <c r="F9">
-        <v>3.123</v>
+        <v>-3.324</v>
       </c>
       <c r="G9">
-        <v>0.0018</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>153087372605.637</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -638,25 +638,25 @@
         </is>
       </c>
       <c r="C11">
-        <v>2.601</v>
+        <v>0.164</v>
       </c>
       <c r="D11">
-        <v>0.586</v>
+        <v>0.06</v>
       </c>
       <c r="E11">
-        <v>11.533</v>
+        <v>0.444</v>
       </c>
       <c r="F11">
-        <v>1.258</v>
+        <v>-3.555</v>
       </c>
       <c r="G11">
-        <v>0.2085</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -665,25 +665,25 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.501</v>
+        <v>2.655</v>
       </c>
       <c r="D12">
-        <v>0.131</v>
+        <v>0.781</v>
       </c>
       <c r="E12">
-        <v>1.907</v>
+        <v>9.031000000000001</v>
       </c>
       <c r="F12">
-        <v>-1.014</v>
+        <v>1.564</v>
       </c>
       <c r="G12">
-        <v>0.3106</v>
+        <v>0.1179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -692,25 +692,25 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.231</v>
+        <v>2.542</v>
       </c>
       <c r="D13">
-        <v>0.039</v>
+        <v>0.629</v>
       </c>
       <c r="E13">
-        <v>1.375</v>
+        <v>10.273</v>
       </c>
       <c r="F13">
-        <v>-1.61</v>
+        <v>1.309</v>
       </c>
       <c r="G13">
-        <v>0.1073</v>
+        <v>0.1904</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.444</v>
+        <v>1.506</v>
       </c>
       <c r="D14">
-        <v>0.272</v>
+        <v>0.988</v>
       </c>
       <c r="E14">
-        <v>0.727</v>
+        <v>2.294</v>
       </c>
       <c r="F14">
-        <v>-3.231</v>
+        <v>1.904</v>
       </c>
       <c r="G14">
-        <v>0.0012</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -746,25 +746,25 @@
         </is>
       </c>
       <c r="C15">
-        <v>1.14</v>
+        <v>0.986</v>
       </c>
       <c r="D15">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="E15">
-        <v>1.757</v>
+        <v>1.352</v>
       </c>
       <c r="F15">
-        <v>0.594</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="G15">
-        <v>0.5523</v>
+        <v>0.9321</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -773,25 +773,25 @@
         </is>
       </c>
       <c r="C16">
-        <v>1.099</v>
+        <v>0.755</v>
       </c>
       <c r="D16">
-        <v>0.697</v>
+        <v>0.526</v>
       </c>
       <c r="E16">
-        <v>1.733</v>
+        <v>1.084</v>
       </c>
       <c r="F16">
-        <v>0.408</v>
+        <v>-1.525</v>
       </c>
       <c r="G16">
-        <v>0.6834</v>
+        <v>0.1273</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -800,25 +800,25 @@
         </is>
       </c>
       <c r="C17">
-        <v>1.173</v>
+        <v>1.034</v>
       </c>
       <c r="D17">
-        <v>0.789</v>
+        <v>0.781</v>
       </c>
       <c r="E17">
-        <v>1.745</v>
+        <v>1.369</v>
       </c>
       <c r="F17">
-        <v>0.788</v>
+        <v>0.233</v>
       </c>
       <c r="G17">
-        <v>0.4308</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -827,25 +827,25 @@
         </is>
       </c>
       <c r="C18">
-        <v>1.237</v>
+        <v>0.952</v>
       </c>
       <c r="D18">
-        <v>0.839</v>
+        <v>0.711</v>
       </c>
       <c r="E18">
-        <v>1.825</v>
+        <v>1.274</v>
       </c>
       <c r="F18">
-        <v>1.073</v>
+        <v>-0.332</v>
       </c>
       <c r="G18">
-        <v>0.2833</v>
+        <v>0.7401</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -854,25 +854,25 @@
         </is>
       </c>
       <c r="C19">
-        <v>1.381</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="D19">
-        <v>0.944</v>
+        <v>0.503</v>
       </c>
       <c r="E19">
-        <v>2.02</v>
+        <v>0.956</v>
       </c>
       <c r="F19">
-        <v>1.663</v>
+        <v>-2.236</v>
       </c>
       <c r="G19">
-        <v>0.09619999999999999</v>
+        <v>0.0254</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -881,25 +881,25 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.505</v>
+        <v>1.078</v>
       </c>
       <c r="D20">
-        <v>0.333</v>
+        <v>0.78</v>
       </c>
       <c r="E20">
-        <v>0.767</v>
+        <v>1.49</v>
       </c>
       <c r="F20">
-        <v>-3.204</v>
+        <v>0.457</v>
       </c>
       <c r="G20">
-        <v>0.0014</v>
+        <v>0.6475</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -908,25 +908,25 @@
         </is>
       </c>
       <c r="C21">
-        <v>1.063</v>
+        <v>0.904</v>
       </c>
       <c r="D21">
-        <v>0.757</v>
+        <v>0.694</v>
       </c>
       <c r="E21">
-        <v>1.493</v>
+        <v>1.179</v>
       </c>
       <c r="F21">
-        <v>0.354</v>
+        <v>-0.744</v>
       </c>
       <c r="G21">
-        <v>0.7231</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -935,25 +935,25 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.919</v>
+        <v>1.074</v>
       </c>
       <c r="D22">
-        <v>0.6820000000000001</v>
+        <v>0.849</v>
       </c>
       <c r="E22">
-        <v>1.237</v>
+        <v>1.357</v>
       </c>
       <c r="F22">
-        <v>-0.5580000000000001</v>
+        <v>0.596</v>
       </c>
       <c r="G22">
-        <v>0.5766</v>
+        <v>0.5515</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -962,25 +962,25 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.643</v>
+        <v>0.726</v>
       </c>
       <c r="D23">
-        <v>0.232</v>
+        <v>0.343</v>
       </c>
       <c r="E23">
-        <v>1.782</v>
+        <v>1.536</v>
       </c>
       <c r="F23">
-        <v>-0.85</v>
+        <v>-0.837</v>
       </c>
       <c r="G23">
-        <v>0.3955</v>
+        <v>0.4026</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -989,25 +989,25 @@
         </is>
       </c>
       <c r="C24">
-        <v>4.487</v>
+        <v>0.172</v>
       </c>
       <c r="D24">
-        <v>1.17</v>
+        <v>0.066</v>
       </c>
       <c r="E24">
-        <v>17.207</v>
+        <v>0.451</v>
       </c>
       <c r="F24">
-        <v>2.189</v>
+        <v>-3.584</v>
       </c>
       <c r="G24">
-        <v>0.0286</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1016,25 +1016,25 @@
         </is>
       </c>
       <c r="C25">
-        <v>5.465</v>
+        <v>0.326</v>
       </c>
       <c r="D25">
-        <v>0.22</v>
+        <v>0.029</v>
       </c>
       <c r="E25">
-        <v>135.667</v>
+        <v>3.668</v>
       </c>
       <c r="F25">
-        <v>1.036</v>
+        <v>-0.908</v>
       </c>
       <c r="G25">
-        <v>0.3</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1043,25 +1043,25 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.591</v>
+        <v>1.281</v>
       </c>
       <c r="D26">
-        <v>0.062</v>
+        <v>0.236</v>
       </c>
       <c r="E26">
-        <v>5.679</v>
+        <v>6.967</v>
       </c>
       <c r="F26">
-        <v>-0.455</v>
+        <v>0.287</v>
       </c>
       <c r="G26">
-        <v>0.6491</v>
+        <v>0.7743</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1070,25 +1070,25 @@
         </is>
       </c>
       <c r="C27">
-        <v>3.133</v>
+        <v>0.285</v>
       </c>
       <c r="D27">
-        <v>0.82</v>
+        <v>0.112</v>
       </c>
       <c r="E27">
-        <v>11.978</v>
+        <v>0.726</v>
       </c>
       <c r="F27">
-        <v>1.669</v>
+        <v>-2.634</v>
       </c>
       <c r="G27">
-        <v>0.095</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1097,25 +1097,25 @@
         </is>
       </c>
       <c r="C28">
-        <v>3.196</v>
+        <v>0.345</v>
       </c>
       <c r="D28">
-        <v>0.9389999999999999</v>
+        <v>0.149</v>
       </c>
       <c r="E28">
-        <v>10.883</v>
+        <v>0.8</v>
       </c>
       <c r="F28">
-        <v>1.859</v>
+        <v>-2.482</v>
       </c>
       <c r="G28">
-        <v>0.0631</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Modo activo</t>
+          <t>Auto privado</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1124,25 +1124,25 @@
         </is>
       </c>
       <c r="C29">
-        <v>1.002</v>
+        <v>0.999</v>
       </c>
       <c r="D29">
-        <v>0.989</v>
+        <v>0.988</v>
       </c>
       <c r="E29">
-        <v>1.015</v>
+        <v>1.009</v>
       </c>
       <c r="F29">
-        <v>0.349</v>
+        <v>-0.271</v>
       </c>
       <c r="G29">
-        <v>0.7268</v>
+        <v>0.7867</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1151,25 +1151,25 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.08400000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="D30">
-        <v>0.008</v>
+        <v>0.048</v>
       </c>
       <c r="E30">
-        <v>0.882</v>
+        <v>16.035</v>
       </c>
       <c r="F30">
-        <v>-2.065</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="G30">
-        <v>0.0389</v>
+        <v>0.9315</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1178,25 +1178,25 @@
         </is>
       </c>
       <c r="C31">
-        <v>1.831</v>
+        <v>0.851</v>
       </c>
       <c r="D31">
-        <v>0.82</v>
+        <v>0.297</v>
       </c>
       <c r="E31">
-        <v>4.087</v>
+        <v>2.439</v>
       </c>
       <c r="F31">
-        <v>1.477</v>
+        <v>-0.301</v>
       </c>
       <c r="G31">
-        <v>0.1397</v>
+        <v>0.7633</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1205,25 +1205,25 @@
         </is>
       </c>
       <c r="C32">
-        <v>0.298</v>
+        <v>8.507999999999999</v>
       </c>
       <c r="D32">
-        <v>0.116</v>
+        <v>2.85</v>
       </c>
       <c r="E32">
-        <v>0.766</v>
+        <v>25.396</v>
       </c>
       <c r="F32">
-        <v>-2.513</v>
+        <v>3.837</v>
       </c>
       <c r="G32">
-        <v>0.012</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1232,25 +1232,25 @@
         </is>
       </c>
       <c r="C33">
-        <v>0.5679999999999999</v>
+        <v>10.065</v>
       </c>
       <c r="D33">
-        <v>0.21</v>
+        <v>2.287</v>
       </c>
       <c r="E33">
-        <v>1.534</v>
+        <v>44.29</v>
       </c>
       <c r="F33">
-        <v>-1.117</v>
+        <v>3.054</v>
       </c>
       <c r="G33">
-        <v>0.2641</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1259,25 +1259,25 @@
         </is>
       </c>
       <c r="C34">
-        <v>2.32</v>
+        <v>6.443</v>
       </c>
       <c r="D34">
-        <v>0.8159999999999999</v>
+        <v>1.563</v>
       </c>
       <c r="E34">
-        <v>6.599</v>
+        <v>26.553</v>
       </c>
       <c r="F34">
-        <v>1.578</v>
+        <v>2.578</v>
       </c>
       <c r="G34">
-        <v>0.1145</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1286,25 +1286,25 @@
         </is>
       </c>
       <c r="C35">
-        <v>0.627</v>
+        <v>4.877</v>
       </c>
       <c r="D35">
-        <v>0.254</v>
+        <v>1.155</v>
       </c>
       <c r="E35">
-        <v>1.549</v>
+        <v>20.601</v>
       </c>
       <c r="F35">
-        <v>-1.011</v>
+        <v>2.156</v>
       </c>
       <c r="G35">
-        <v>0.3122</v>
+        <v>0.0311</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1313,25 +1313,25 @@
         </is>
       </c>
       <c r="C36">
-        <v>1.994</v>
+        <v>11.964</v>
       </c>
       <c r="D36">
-        <v>0.42</v>
+        <v>2.365</v>
       </c>
       <c r="E36">
-        <v>9.478</v>
+        <v>60.523</v>
       </c>
       <c r="F36">
-        <v>0.868</v>
+        <v>3.001</v>
       </c>
       <c r="G36">
-        <v>0.3855</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1340,25 +1340,25 @@
         </is>
       </c>
       <c r="C37">
-        <v>11.458</v>
+        <v>1.342</v>
       </c>
       <c r="D37">
-        <v>2.715</v>
+        <v>0.267</v>
       </c>
       <c r="E37">
-        <v>48.354</v>
+        <v>6.74</v>
       </c>
       <c r="F37">
-        <v>3.32</v>
+        <v>0.357</v>
       </c>
       <c r="G37">
-        <v>0.0009</v>
+        <v>0.7209</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1367,25 +1367,13 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.004</v>
-      </c>
-      <c r="D38">
-        <v>0.004</v>
-      </c>
-      <c r="E38">
-        <v>0.004</v>
-      </c>
-      <c r="F38">
-        <v>-37483287470123.56</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
+        <v>81418307735821.28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1394,25 +1382,25 @@
         </is>
       </c>
       <c r="C39">
-        <v>6.118</v>
+        <v>0.423</v>
       </c>
       <c r="D39">
-        <v>2.259</v>
+        <v>0.099</v>
       </c>
       <c r="E39">
-        <v>16.571</v>
+        <v>1.806</v>
       </c>
       <c r="F39">
-        <v>3.563</v>
+        <v>-1.162</v>
       </c>
       <c r="G39">
-        <v>0.0004</v>
+        <v>0.2453</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1421,25 +1409,25 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.382</v>
+        <v>1.301</v>
       </c>
       <c r="D40">
-        <v>0.112</v>
+        <v>0.346</v>
       </c>
       <c r="E40">
-        <v>1.297</v>
+        <v>4.888</v>
       </c>
       <c r="F40">
-        <v>-1.544</v>
+        <v>0.389</v>
       </c>
       <c r="G40">
-        <v>0.1227</v>
+        <v>0.6969</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1448,25 +1436,25 @@
         </is>
       </c>
       <c r="C41">
-        <v>0.393</v>
+        <v>0.578</v>
       </c>
       <c r="D41">
-        <v>0.098</v>
+        <v>0.106</v>
       </c>
       <c r="E41">
-        <v>1.587</v>
+        <v>3.153</v>
       </c>
       <c r="F41">
-        <v>-1.311</v>
+        <v>-0.634</v>
       </c>
       <c r="G41">
-        <v>0.1898</v>
+        <v>0.5263</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1475,25 +1463,25 @@
         </is>
       </c>
       <c r="C42">
-        <v>0.668</v>
+        <v>0.665</v>
       </c>
       <c r="D42">
-        <v>0.439</v>
+        <v>0.434</v>
       </c>
       <c r="E42">
-        <v>1.016</v>
+        <v>1.021</v>
       </c>
       <c r="F42">
-        <v>-1.886</v>
+        <v>-1.866</v>
       </c>
       <c r="G42">
-        <v>0.0593</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1502,25 +1490,25 @@
         </is>
       </c>
       <c r="C43">
-        <v>1.016</v>
+        <v>1.119</v>
       </c>
       <c r="D43">
-        <v>0.742</v>
+        <v>0.75</v>
       </c>
       <c r="E43">
-        <v>1.39</v>
+        <v>1.669</v>
       </c>
       <c r="F43">
-        <v>0.097</v>
+        <v>0.55</v>
       </c>
       <c r="G43">
-        <v>0.9229000000000001</v>
+        <v>0.5821</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1529,25 +1517,25 @@
         </is>
       </c>
       <c r="C44">
-        <v>1.33</v>
+        <v>0.824</v>
       </c>
       <c r="D44">
-        <v>0.928</v>
+        <v>0.544</v>
       </c>
       <c r="E44">
-        <v>1.905</v>
+        <v>1.249</v>
       </c>
       <c r="F44">
-        <v>1.555</v>
+        <v>-0.913</v>
       </c>
       <c r="G44">
-        <v>0.1199</v>
+        <v>0.3614</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1556,25 +1544,25 @@
         </is>
       </c>
       <c r="C45">
-        <v>0.969</v>
+        <v>1.21</v>
       </c>
       <c r="D45">
-        <v>0.733</v>
+        <v>0.843</v>
       </c>
       <c r="E45">
-        <v>1.282</v>
+        <v>1.736</v>
       </c>
       <c r="F45">
-        <v>-0.218</v>
+        <v>1.033</v>
       </c>
       <c r="G45">
-        <v>0.8278</v>
+        <v>0.3015</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1583,25 +1571,25 @@
         </is>
       </c>
       <c r="C46">
-        <v>1.05</v>
+        <v>1.173</v>
       </c>
       <c r="D46">
-        <v>0.785</v>
+        <v>0.828</v>
       </c>
       <c r="E46">
-        <v>1.404</v>
+        <v>1.663</v>
       </c>
       <c r="F46">
-        <v>0.331</v>
+        <v>0.898</v>
       </c>
       <c r="G46">
-        <v>0.7407</v>
+        <v>0.3694</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1610,25 +1598,25 @@
         </is>
       </c>
       <c r="C47">
-        <v>1.441</v>
+        <v>0.961</v>
       </c>
       <c r="D47">
-        <v>1.046</v>
+        <v>0.664</v>
       </c>
       <c r="E47">
-        <v>1.986</v>
+        <v>1.392</v>
       </c>
       <c r="F47">
-        <v>2.234</v>
+        <v>-0.209</v>
       </c>
       <c r="G47">
-        <v>0.0255</v>
+        <v>0.8341</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1637,25 +1625,25 @@
         </is>
       </c>
       <c r="C48">
-        <v>0.9330000000000001</v>
+        <v>0.541</v>
       </c>
       <c r="D48">
-        <v>0.676</v>
+        <v>0.373</v>
       </c>
       <c r="E48">
-        <v>1.287</v>
+        <v>0.785</v>
       </c>
       <c r="F48">
-        <v>-0.424</v>
+        <v>-3.237</v>
       </c>
       <c r="G48">
-        <v>0.6718</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1664,25 +1652,25 @@
         </is>
       </c>
       <c r="C49">
-        <v>1.102</v>
+        <v>0.966</v>
       </c>
       <c r="D49">
-        <v>0.847</v>
+        <v>0.717</v>
       </c>
       <c r="E49">
-        <v>1.435</v>
+        <v>1.3</v>
       </c>
       <c r="F49">
-        <v>0.723</v>
+        <v>-0.23</v>
       </c>
       <c r="G49">
-        <v>0.4694</v>
+        <v>0.8179</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1691,25 +1679,25 @@
         </is>
       </c>
       <c r="C50">
-        <v>0.9350000000000001</v>
+        <v>0.981</v>
       </c>
       <c r="D50">
-        <v>0.74</v>
+        <v>0.754</v>
       </c>
       <c r="E50">
-        <v>1.181</v>
+        <v>1.276</v>
       </c>
       <c r="F50">
-        <v>-0.5649999999999999</v>
+        <v>-0.146</v>
       </c>
       <c r="G50">
-        <v>0.5723</v>
+        <v>0.8839</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1718,25 +1706,25 @@
         </is>
       </c>
       <c r="C51">
-        <v>1.369</v>
+        <v>0.472</v>
       </c>
       <c r="D51">
-        <v>0.649</v>
+        <v>0.191</v>
       </c>
       <c r="E51">
-        <v>2.887</v>
+        <v>1.166</v>
       </c>
       <c r="F51">
-        <v>0.824</v>
+        <v>-1.626</v>
       </c>
       <c r="G51">
-        <v>0.4099</v>
+        <v>0.1038</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1745,25 +1733,25 @@
         </is>
       </c>
       <c r="C52">
-        <v>5.81</v>
+        <v>0.768</v>
       </c>
       <c r="D52">
-        <v>2.225</v>
+        <v>0.203</v>
       </c>
       <c r="E52">
-        <v>15.173</v>
+        <v>2.901</v>
       </c>
       <c r="F52">
-        <v>3.593</v>
+        <v>-0.39</v>
       </c>
       <c r="G52">
-        <v>0.0003</v>
+        <v>0.6965</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1772,25 +1760,25 @@
         </is>
       </c>
       <c r="C53">
-        <v>2.96</v>
+        <v>1.811</v>
       </c>
       <c r="D53">
-        <v>0.272</v>
+        <v>0.154</v>
       </c>
       <c r="E53">
-        <v>32.196</v>
+        <v>21.324</v>
       </c>
       <c r="F53">
-        <v>0.891</v>
+        <v>0.472</v>
       </c>
       <c r="G53">
-        <v>0.3729</v>
+        <v>0.6368</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1799,25 +1787,25 @@
         </is>
       </c>
       <c r="C54">
-        <v>0.819</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="D54">
-        <v>0.15</v>
+        <v>0.075</v>
       </c>
       <c r="E54">
-        <v>4.479</v>
+        <v>6.258</v>
       </c>
       <c r="F54">
-        <v>-0.23</v>
+        <v>-0.336</v>
       </c>
       <c r="G54">
-        <v>0.8178</v>
+        <v>0.7371</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1826,25 +1814,25 @@
         </is>
       </c>
       <c r="C55">
-        <v>3.481</v>
+        <v>0.893</v>
       </c>
       <c r="D55">
-        <v>1.374</v>
+        <v>0.258</v>
       </c>
       <c r="E55">
-        <v>8.818</v>
+        <v>3.098</v>
       </c>
       <c r="F55">
-        <v>2.63</v>
+        <v>-0.178</v>
       </c>
       <c r="G55">
-        <v>0.008500000000000001</v>
+        <v>0.8588</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1853,25 +1841,25 @@
         </is>
       </c>
       <c r="C56">
-        <v>2.882</v>
+        <v>1.099</v>
       </c>
       <c r="D56">
-        <v>1.247</v>
+        <v>0.344</v>
       </c>
       <c r="E56">
-        <v>6.662</v>
+        <v>3.513</v>
       </c>
       <c r="F56">
-        <v>2.476</v>
+        <v>0.159</v>
       </c>
       <c r="G56">
-        <v>0.0133</v>
+        <v>0.8738</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Moto privada</t>
+          <t>Modo activo</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1883,16 +1871,16 @@
         <v>1.001</v>
       </c>
       <c r="D57">
-        <v>0.991</v>
+        <v>0.989</v>
       </c>
       <c r="E57">
-        <v>1.012</v>
+        <v>1.013</v>
       </c>
       <c r="F57">
-        <v>0.225</v>
+        <v>0.169</v>
       </c>
       <c r="G57">
-        <v>0.822</v>
+        <v>0.8658</v>
       </c>
     </row>
     <row r="58">
@@ -1907,19 +1895,19 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.08799999999999999</v>
+        <v>1.049</v>
       </c>
       <c r="D58">
-        <v>0.006</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E58">
-        <v>1.314</v>
+        <v>13.159</v>
       </c>
       <c r="F58">
-        <v>-1.762</v>
+        <v>0.037</v>
       </c>
       <c r="G58">
-        <v>0.0781</v>
+        <v>0.9702</v>
       </c>
     </row>
     <row r="59">
@@ -1934,19 +1922,19 @@
         </is>
       </c>
       <c r="C59">
-        <v>1.184</v>
+        <v>0.639</v>
       </c>
       <c r="D59">
-        <v>0.423</v>
+        <v>0.262</v>
       </c>
       <c r="E59">
-        <v>3.315</v>
+        <v>1.562</v>
       </c>
       <c r="F59">
-        <v>0.321</v>
+        <v>-0.982</v>
       </c>
       <c r="G59">
-        <v>0.7479</v>
+        <v>0.3263</v>
       </c>
     </row>
     <row r="60">
@@ -1961,19 +1949,19 @@
         </is>
       </c>
       <c r="C60">
-        <v>1.726</v>
+        <v>5.847</v>
       </c>
       <c r="D60">
-        <v>0.627</v>
+        <v>2.221</v>
       </c>
       <c r="E60">
-        <v>4.748</v>
+        <v>15.393</v>
       </c>
       <c r="F60">
-        <v>1.057</v>
+        <v>3.576</v>
       </c>
       <c r="G60">
-        <v>0.2904</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="61">
@@ -1988,19 +1976,19 @@
         </is>
       </c>
       <c r="C61">
-        <v>2.3</v>
+        <v>4.081</v>
       </c>
       <c r="D61">
-        <v>0.702</v>
+        <v>1.347</v>
       </c>
       <c r="E61">
-        <v>7.54</v>
+        <v>12.364</v>
       </c>
       <c r="F61">
-        <v>1.375</v>
+        <v>2.487</v>
       </c>
       <c r="G61">
-        <v>0.1692</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="62">
@@ -2015,19 +2003,19 @@
         </is>
       </c>
       <c r="C62">
-        <v>2.603</v>
+        <v>1.111</v>
       </c>
       <c r="D62">
-        <v>0.722</v>
+        <v>0.369</v>
       </c>
       <c r="E62">
-        <v>9.388999999999999</v>
+        <v>3.346</v>
       </c>
       <c r="F62">
-        <v>1.462</v>
+        <v>0.187</v>
       </c>
       <c r="G62">
-        <v>0.1438</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="63">
@@ -2042,19 +2030,19 @@
         </is>
       </c>
       <c r="C63">
-        <v>0.96</v>
+        <v>1.536</v>
       </c>
       <c r="D63">
-        <v>0.278</v>
+        <v>0.472</v>
       </c>
       <c r="E63">
-        <v>3.317</v>
+        <v>4.999</v>
       </c>
       <c r="F63">
-        <v>-0.064</v>
+        <v>0.712</v>
       </c>
       <c r="G63">
-        <v>0.9489</v>
+        <v>0.4762</v>
       </c>
     </row>
     <row r="64">
@@ -2069,19 +2057,19 @@
         </is>
       </c>
       <c r="C64">
-        <v>4.008</v>
+        <v>2.025</v>
       </c>
       <c r="D64">
-        <v>0.75</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="E64">
-        <v>21.43</v>
+        <v>7.226</v>
       </c>
       <c r="F64">
-        <v>1.623</v>
+        <v>1.087</v>
       </c>
       <c r="G64">
-        <v>0.1045</v>
+        <v>0.2769</v>
       </c>
     </row>
     <row r="65">
@@ -2096,19 +2084,19 @@
         </is>
       </c>
       <c r="C65">
-        <v>12.588</v>
+        <v>1.082</v>
       </c>
       <c r="D65">
-        <v>2.556</v>
+        <v>0.244</v>
       </c>
       <c r="E65">
-        <v>61.991</v>
+        <v>4.804</v>
       </c>
       <c r="F65">
-        <v>3.114</v>
+        <v>0.104</v>
       </c>
       <c r="G65">
-        <v>0.0018</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="66">
@@ -2138,19 +2126,19 @@
         </is>
       </c>
       <c r="C67">
-        <v>3.018</v>
+        <v>0.5</v>
       </c>
       <c r="D67">
-        <v>0.801</v>
+        <v>0.135</v>
       </c>
       <c r="E67">
-        <v>11.364</v>
+        <v>1.854</v>
       </c>
       <c r="F67">
-        <v>1.633</v>
+        <v>-1.037</v>
       </c>
       <c r="G67">
-        <v>0.1025</v>
+        <v>0.2995</v>
       </c>
     </row>
     <row r="68">
@@ -2165,19 +2153,19 @@
         </is>
       </c>
       <c r="C68">
-        <v>1.072</v>
+        <v>2.813</v>
       </c>
       <c r="D68">
-        <v>0.312</v>
+        <v>0.825</v>
       </c>
       <c r="E68">
-        <v>3.678</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="F68">
-        <v>0.11</v>
+        <v>1.652</v>
       </c>
       <c r="G68">
-        <v>0.9125</v>
+        <v>0.0985</v>
       </c>
     </row>
     <row r="69">
@@ -2192,19 +2180,19 @@
         </is>
       </c>
       <c r="C69">
-        <v>0.6899999999999999</v>
+        <v>1.709</v>
       </c>
       <c r="D69">
-        <v>0.183</v>
+        <v>0.512</v>
       </c>
       <c r="E69">
-        <v>2.609</v>
+        <v>5.709</v>
       </c>
       <c r="F69">
-        <v>-0.546</v>
+        <v>0.871</v>
       </c>
       <c r="G69">
-        <v>0.5849</v>
+        <v>0.3837</v>
       </c>
     </row>
     <row r="70">
@@ -2219,19 +2207,19 @@
         </is>
       </c>
       <c r="C70">
-        <v>0.649</v>
+        <v>0.971</v>
       </c>
       <c r="D70">
-        <v>0.406</v>
+        <v>0.638</v>
       </c>
       <c r="E70">
-        <v>1.038</v>
+        <v>1.479</v>
       </c>
       <c r="F70">
-        <v>-1.805</v>
+        <v>-0.136</v>
       </c>
       <c r="G70">
-        <v>0.07099999999999999</v>
+        <v>0.8915</v>
       </c>
     </row>
     <row r="71">
@@ -2246,19 +2234,19 @@
         </is>
       </c>
       <c r="C71">
-        <v>1.014</v>
+        <v>0.998</v>
       </c>
       <c r="D71">
-        <v>0.71</v>
+        <v>0.717</v>
       </c>
       <c r="E71">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="F71">
-        <v>0.079</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="G71">
-        <v>0.9373</v>
+        <v>0.9927</v>
       </c>
     </row>
     <row r="72">
@@ -2273,19 +2261,19 @@
         </is>
       </c>
       <c r="C72">
-        <v>0.749</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="D72">
-        <v>0.509</v>
+        <v>0.398</v>
       </c>
       <c r="E72">
-        <v>1.1</v>
+        <v>0.795</v>
       </c>
       <c r="F72">
-        <v>-1.474</v>
+        <v>-3.263</v>
       </c>
       <c r="G72">
-        <v>0.1405</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="73">
@@ -2300,19 +2288,19 @@
         </is>
       </c>
       <c r="C73">
-        <v>1.167</v>
+        <v>1.203</v>
       </c>
       <c r="D73">
-        <v>0.823</v>
+        <v>0.877</v>
       </c>
       <c r="E73">
-        <v>1.655</v>
+        <v>1.65</v>
       </c>
       <c r="F73">
-        <v>0.868</v>
+        <v>1.146</v>
       </c>
       <c r="G73">
-        <v>0.3854</v>
+        <v>0.2519</v>
       </c>
     </row>
     <row r="74">
@@ -2327,19 +2315,19 @@
         </is>
       </c>
       <c r="C74">
-        <v>1.205</v>
+        <v>1.148</v>
       </c>
       <c r="D74">
-        <v>0.851</v>
+        <v>0.84</v>
       </c>
       <c r="E74">
-        <v>1.708</v>
+        <v>1.571</v>
       </c>
       <c r="F74">
-        <v>1.051</v>
+        <v>0.866</v>
       </c>
       <c r="G74">
-        <v>0.293</v>
+        <v>0.3868</v>
       </c>
     </row>
     <row r="75">
@@ -2354,19 +2342,19 @@
         </is>
       </c>
       <c r="C75">
-        <v>1.385</v>
+        <v>0.962</v>
       </c>
       <c r="D75">
-        <v>0.9350000000000001</v>
+        <v>0.648</v>
       </c>
       <c r="E75">
-        <v>2.051</v>
+        <v>1.426</v>
       </c>
       <c r="F75">
-        <v>1.624</v>
+        <v>-0.195</v>
       </c>
       <c r="G75">
-        <v>0.1043</v>
+        <v>0.8453000000000001</v>
       </c>
     </row>
     <row r="76">
@@ -2381,19 +2369,19 @@
         </is>
       </c>
       <c r="C76">
-        <v>1.169</v>
+        <v>1.254</v>
       </c>
       <c r="D76">
-        <v>0.801</v>
+        <v>0.894</v>
       </c>
       <c r="E76">
-        <v>1.706</v>
+        <v>1.757</v>
       </c>
       <c r="F76">
-        <v>0.8080000000000001</v>
+        <v>1.312</v>
       </c>
       <c r="G76">
-        <v>0.4189</v>
+        <v>0.1894</v>
       </c>
     </row>
     <row r="77">
@@ -2408,19 +2396,19 @@
         </is>
       </c>
       <c r="C77">
-        <v>1.208</v>
+        <v>1.099</v>
       </c>
       <c r="D77">
-        <v>0.878</v>
+        <v>0.829</v>
       </c>
       <c r="E77">
-        <v>1.662</v>
+        <v>1.455</v>
       </c>
       <c r="F77">
-        <v>1.158</v>
+        <v>0.656</v>
       </c>
       <c r="G77">
-        <v>0.2467</v>
+        <v>0.5117</v>
       </c>
     </row>
     <row r="78">
@@ -2435,19 +2423,19 @@
         </is>
       </c>
       <c r="C78">
-        <v>0.776</v>
+        <v>0.829</v>
       </c>
       <c r="D78">
-        <v>0.581</v>
+        <v>0.64</v>
       </c>
       <c r="E78">
-        <v>1.036</v>
+        <v>1.073</v>
       </c>
       <c r="F78">
-        <v>-1.722</v>
+        <v>-1.424</v>
       </c>
       <c r="G78">
-        <v>0.08500000000000001</v>
+        <v>0.1544</v>
       </c>
     </row>
     <row r="79">
@@ -2462,19 +2450,19 @@
         </is>
       </c>
       <c r="C79">
-        <v>4.456</v>
+        <v>3.286</v>
       </c>
       <c r="D79">
-        <v>1.79</v>
+        <v>1.474</v>
       </c>
       <c r="E79">
-        <v>11.096</v>
+        <v>7.323</v>
       </c>
       <c r="F79">
-        <v>3.211</v>
+        <v>2.909</v>
       </c>
       <c r="G79">
-        <v>0.0013</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="80">
@@ -2489,19 +2477,19 @@
         </is>
       </c>
       <c r="C80">
-        <v>5.833</v>
+        <v>1.004</v>
       </c>
       <c r="D80">
-        <v>1.734</v>
+        <v>0.294</v>
       </c>
       <c r="E80">
-        <v>19.619</v>
+        <v>3.428</v>
       </c>
       <c r="F80">
-        <v>2.85</v>
+        <v>0.007</v>
       </c>
       <c r="G80">
-        <v>0.0044</v>
+        <v>0.9944</v>
       </c>
     </row>
     <row r="81">
@@ -2516,19 +2504,19 @@
         </is>
       </c>
       <c r="C81">
-        <v>3.256</v>
+        <v>1.101</v>
       </c>
       <c r="D81">
-        <v>0.16</v>
+        <v>0.101</v>
       </c>
       <c r="E81">
-        <v>66.384</v>
+        <v>11.952</v>
       </c>
       <c r="F81">
-        <v>0.767</v>
+        <v>0.079</v>
       </c>
       <c r="G81">
-        <v>0.4428</v>
+        <v>0.9372</v>
       </c>
     </row>
     <row r="82">
@@ -2543,19 +2531,19 @@
         </is>
       </c>
       <c r="C82">
-        <v>0.08699999999999999</v>
+        <v>0.101</v>
       </c>
       <c r="D82">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E82">
-        <v>1.296</v>
+        <v>1.479</v>
       </c>
       <c r="F82">
-        <v>-1.772</v>
+        <v>-1.674</v>
       </c>
       <c r="G82">
-        <v>0.0765</v>
+        <v>0.0941</v>
       </c>
     </row>
     <row r="83">
@@ -2570,19 +2558,19 @@
         </is>
       </c>
       <c r="C83">
-        <v>1.528</v>
+        <v>0.439</v>
       </c>
       <c r="D83">
-        <v>0.504</v>
+        <v>0.16</v>
       </c>
       <c r="E83">
-        <v>4.633</v>
+        <v>1.211</v>
       </c>
       <c r="F83">
-        <v>0.749</v>
+        <v>-1.59</v>
       </c>
       <c r="G83">
-        <v>0.4537</v>
+        <v>0.1118</v>
       </c>
     </row>
     <row r="84">
@@ -2597,19 +2585,19 @@
         </is>
       </c>
       <c r="C84">
-        <v>1.379</v>
+        <v>0.477</v>
       </c>
       <c r="D84">
-        <v>0.493</v>
+        <v>0.179</v>
       </c>
       <c r="E84">
-        <v>3.858</v>
+        <v>1.272</v>
       </c>
       <c r="F84">
-        <v>0.613</v>
+        <v>-1.479</v>
       </c>
       <c r="G84">
-        <v>0.5397999999999999</v>
+        <v>0.1391</v>
       </c>
     </row>
     <row r="85">
@@ -2624,19 +2612,19 @@
         </is>
       </c>
       <c r="C85">
-        <v>0.98</v>
+        <v>0.979</v>
       </c>
       <c r="D85">
         <v>0.966</v>
       </c>
       <c r="E85">
-        <v>0.995</v>
+        <v>0.993</v>
       </c>
       <c r="F85">
-        <v>-2.627</v>
+        <v>-3.011</v>
       </c>
       <c r="G85">
-        <v>0.0086</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="86">
@@ -2660,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>-27.148</v>
+        <v>-15.056</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2687,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-15.042</v>
+        <v>-36.115</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2714,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-8.004</v>
+        <v>-6.913</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -2732,16 +2720,16 @@
         </is>
       </c>
       <c r="C89">
-        <v>27408059.455</v>
+        <v>37380665024.498</v>
       </c>
       <c r="D89">
-        <v>1420941.396</v>
+        <v>615831647.553</v>
       </c>
       <c r="E89">
-        <v>528664817.032</v>
+        <v>2268987187044.123</v>
       </c>
       <c r="F89">
-        <v>11.342</v>
+        <v>11.621</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -2759,19 +2747,19 @@
         </is>
       </c>
       <c r="C90">
-        <v>1806111.359</v>
+        <v>24577606.585</v>
       </c>
       <c r="D90">
-        <v>1960.969</v>
+        <v>861.905</v>
       </c>
       <c r="E90">
-        <v>1663482399.281</v>
+        <v>700841211477.834</v>
       </c>
       <c r="F90">
-        <v>4.137</v>
+        <v>3.251</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="91">
@@ -2795,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>-7.476</v>
+        <v>-7.746</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2822,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>-15.907</v>
+        <v>-69.039</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -2840,16 +2828,16 @@
         </is>
       </c>
       <c r="C93">
-        <v>1.208679604569791E+26</v>
+        <v>6.482571924573497E+18</v>
       </c>
       <c r="D93">
-        <v>5.136899766420349E+22</v>
+        <v>991177893060436.8</v>
       </c>
       <c r="E93">
-        <v>2.843945673327803E+29</v>
+        <v>4.239777647533364E+22</v>
       </c>
       <c r="F93">
-        <v>15.162</v>
+        <v>9.663</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -2867,7 +2855,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>16.981</v>
+        <v>34.688</v>
       </c>
     </row>
     <row r="95">
@@ -2882,19 +2870,19 @@
         </is>
       </c>
       <c r="C95">
-        <v>35440077684828.13</v>
+        <v>2326.607</v>
       </c>
       <c r="D95">
-        <v>4718352699.398</v>
+        <v>44.547</v>
       </c>
       <c r="E95">
-        <v>2.661944085839475E+17</v>
+        <v>121514.376</v>
       </c>
       <c r="F95">
-        <v>6.852</v>
+        <v>3.841</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="96">
@@ -2918,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>-1793580752.758</v>
+        <v>-2200640595371.023</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -2936,16 +2924,16 @@
         </is>
       </c>
       <c r="C97">
-        <v>67730746.295</v>
+        <v>228667404503.203</v>
       </c>
       <c r="D97">
-        <v>1817249.489</v>
+        <v>5257539870.035</v>
       </c>
       <c r="E97">
-        <v>2524394158.658</v>
+        <v>9945484613488.246</v>
       </c>
       <c r="F97">
-        <v>9.766999999999999</v>
+        <v>13.589</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -2963,19 +2951,19 @@
         </is>
       </c>
       <c r="C98">
-        <v>0.03</v>
+        <v>0.042</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>63.38</v>
+        <v>6395.457</v>
       </c>
       <c r="F98">
-        <v>-0.897</v>
+        <v>-0.52</v>
       </c>
       <c r="G98">
-        <v>0.3698</v>
+        <v>0.6028</v>
       </c>
     </row>
     <row r="99">
@@ -2990,19 +2978,19 @@
         </is>
       </c>
       <c r="C99">
-        <v>2181.536</v>
+        <v>2980.475</v>
       </c>
       <c r="D99">
-        <v>0.07099999999999999</v>
+        <v>0.387</v>
       </c>
       <c r="E99">
-        <v>67462407.27500001</v>
+        <v>22939991.095</v>
       </c>
       <c r="F99">
-        <v>1.457</v>
+        <v>1.752</v>
       </c>
       <c r="G99">
-        <v>0.145</v>
+        <v>0.07969999999999999</v>
       </c>
     </row>
     <row r="100">
@@ -3023,13 +3011,13 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0.017</v>
+        <v>0.7</v>
       </c>
       <c r="F100">
-        <v>-2.864</v>
+        <v>-2.003</v>
       </c>
       <c r="G100">
-        <v>0.0042</v>
+        <v>0.0452</v>
       </c>
     </row>
     <row r="101">
@@ -3044,19 +3032,19 @@
         </is>
       </c>
       <c r="C101">
-        <v>5637.246</v>
+        <v>53806.117</v>
       </c>
       <c r="D101">
-        <v>0.028</v>
+        <v>0.001</v>
       </c>
       <c r="E101">
-        <v>1139050896.158</v>
+        <v>3105472807780.208</v>
       </c>
       <c r="F101">
-        <v>1.386</v>
+        <v>1.195</v>
       </c>
       <c r="G101">
-        <v>0.1658</v>
+        <v>0.2322</v>
       </c>
     </row>
     <row r="102">
@@ -3071,19 +3059,19 @@
         </is>
       </c>
       <c r="C102">
-        <v>0.038</v>
+        <v>0.003</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>5091.149</v>
+        <v>18314.911</v>
       </c>
       <c r="F102">
-        <v>-0.542</v>
+        <v>-0.721</v>
       </c>
       <c r="G102">
-        <v>0.588</v>
+        <v>0.4707</v>
       </c>
     </row>
     <row r="103">
@@ -3098,19 +3086,19 @@
         </is>
       </c>
       <c r="C103">
-        <v>2.525</v>
+        <v>1.271</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="E103">
-        <v>3934999.959</v>
+        <v>876.457</v>
       </c>
       <c r="F103">
-        <v>0.127</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G103">
-        <v>0.8987000000000001</v>
+        <v>0.9427</v>
       </c>
     </row>
     <row r="104">
@@ -3125,19 +3113,19 @@
         </is>
       </c>
       <c r="C104">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>880.961</v>
+        <v>6217.541</v>
       </c>
       <c r="F104">
-        <v>-0.864</v>
+        <v>-0.763</v>
       </c>
       <c r="G104">
-        <v>0.3875</v>
+        <v>0.4454</v>
       </c>
     </row>
     <row r="105">
@@ -3152,19 +3140,19 @@
         </is>
       </c>
       <c r="C105">
-        <v>0.063</v>
+        <v>0.079</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>2781.082</v>
+        <v>23947.955</v>
       </c>
       <c r="F105">
-        <v>-0.507</v>
+        <v>-0.394</v>
       </c>
       <c r="G105">
-        <v>0.6124000000000001</v>
+        <v>0.6933</v>
       </c>
     </row>
     <row r="106">
@@ -3179,19 +3167,19 @@
         </is>
       </c>
       <c r="C106">
-        <v>28.801</v>
+        <v>27.41</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>3816054.908</v>
+        <v>209053057.806</v>
       </c>
       <c r="F106">
-        <v>0.5580000000000001</v>
+        <v>0.409</v>
       </c>
       <c r="G106">
-        <v>0.5765</v>
+        <v>0.6822</v>
       </c>
     </row>
     <row r="107">
@@ -3215,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>-8.807</v>
+        <v>-14.496</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3233,19 +3221,19 @@
         </is>
       </c>
       <c r="C108">
-        <v>80.598</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>0.303</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>21415.699</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.541</v>
+        <v>-16.39</v>
       </c>
       <c r="G108">
-        <v>0.1233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3260,16 +3248,16 @@
         </is>
       </c>
       <c r="C109">
-        <v>2563073123260644</v>
+        <v>7484363317335.847</v>
       </c>
       <c r="D109">
-        <v>2563073117241139</v>
+        <v>7484363315822.701</v>
       </c>
       <c r="E109">
-        <v>2563073129280149</v>
+        <v>7484363318848.992</v>
       </c>
       <c r="F109">
-        <v>29610130930.995</v>
+        <v>287384644016.853</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3296,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>-393913249926848.9</v>
+        <v>-1630368644757148</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3314,19 +3302,19 @@
         </is>
       </c>
       <c r="C111">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0.418</v>
+        <v>0.002</v>
       </c>
       <c r="F111">
-        <v>-2.261</v>
+        <v>-4.488</v>
       </c>
       <c r="G111">
-        <v>0.0237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3341,16 +3329,16 @@
         </is>
       </c>
       <c r="C112">
-        <v>337010830694.266</v>
+        <v>44930975500867.41</v>
       </c>
       <c r="D112">
-        <v>58025905.293</v>
+        <v>630780568592.391</v>
       </c>
       <c r="E112">
-        <v>1957337837849518</v>
+        <v>3200467262275618</v>
       </c>
       <c r="F112">
-        <v>6.003</v>
+        <v>14.443</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3368,19 +3356,19 @@
         </is>
       </c>
       <c r="C113">
-        <v>1.079</v>
+        <v>1.096</v>
       </c>
       <c r="D113">
-        <v>0.963</v>
+        <v>0.876</v>
       </c>
       <c r="E113">
-        <v>1.208</v>
+        <v>1.372</v>
       </c>
       <c r="F113">
-        <v>1.316</v>
+        <v>0.8</v>
       </c>
       <c r="G113">
-        <v>0.1881</v>
+        <v>0.4236</v>
       </c>
     </row>
     <row r="114">
@@ -3395,19 +3383,19 @@
         </is>
       </c>
       <c r="C114">
-        <v>0.007</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D114">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="E114">
-        <v>0.103</v>
+        <v>1.006</v>
       </c>
       <c r="F114">
-        <v>-3.639</v>
+        <v>-1.955</v>
       </c>
       <c r="G114">
-        <v>0.0003</v>
+        <v>0.0506</v>
       </c>
     </row>
     <row r="115">
@@ -3422,19 +3410,19 @@
         </is>
       </c>
       <c r="C115">
-        <v>2.071</v>
+        <v>1.124</v>
       </c>
       <c r="D115">
-        <v>0.746</v>
+        <v>0.483</v>
       </c>
       <c r="E115">
-        <v>5.751</v>
+        <v>2.616</v>
       </c>
       <c r="F115">
-        <v>1.398</v>
+        <v>0.272</v>
       </c>
       <c r="G115">
-        <v>0.1621</v>
+        <v>0.7855</v>
       </c>
     </row>
     <row r="116">
@@ -3449,19 +3437,19 @@
         </is>
       </c>
       <c r="C116">
-        <v>1.56</v>
+        <v>5.232</v>
       </c>
       <c r="D116">
-        <v>0.5629999999999999</v>
+        <v>2.027</v>
       </c>
       <c r="E116">
-        <v>4.321</v>
+        <v>13.506</v>
       </c>
       <c r="F116">
-        <v>0.855</v>
+        <v>3.42</v>
       </c>
       <c r="G116">
-        <v>0.3923</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="117">
@@ -3476,19 +3464,19 @@
         </is>
       </c>
       <c r="C117">
-        <v>2.337</v>
+        <v>4.14</v>
       </c>
       <c r="D117">
-        <v>0.667</v>
+        <v>1.333</v>
       </c>
       <c r="E117">
-        <v>8.196999999999999</v>
+        <v>12.859</v>
       </c>
       <c r="F117">
-        <v>1.326</v>
+        <v>2.457</v>
       </c>
       <c r="G117">
-        <v>0.1847</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="118">
@@ -3503,19 +3491,19 @@
         </is>
       </c>
       <c r="C118">
-        <v>4.005</v>
+        <v>1.716</v>
       </c>
       <c r="D118">
-        <v>1.082</v>
+        <v>0.572</v>
       </c>
       <c r="E118">
-        <v>14.816</v>
+        <v>5.149</v>
       </c>
       <c r="F118">
-        <v>2.079</v>
+        <v>0.963</v>
       </c>
       <c r="G118">
-        <v>0.0377</v>
+        <v>0.3353</v>
       </c>
     </row>
     <row r="119">
@@ -3530,19 +3518,19 @@
         </is>
       </c>
       <c r="C119">
-        <v>1.796</v>
+        <v>2.88</v>
       </c>
       <c r="D119">
-        <v>0.547</v>
+        <v>0.958</v>
       </c>
       <c r="E119">
-        <v>5.898</v>
+        <v>8.651</v>
       </c>
       <c r="F119">
-        <v>0.965</v>
+        <v>1.884</v>
       </c>
       <c r="G119">
-        <v>0.3347</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="120">
@@ -3557,19 +3545,19 @@
         </is>
       </c>
       <c r="C120">
-        <v>11.052</v>
+        <v>5.589</v>
       </c>
       <c r="D120">
-        <v>2.07</v>
+        <v>1.708</v>
       </c>
       <c r="E120">
-        <v>59.002</v>
+        <v>18.284</v>
       </c>
       <c r="F120">
-        <v>2.811</v>
+        <v>2.845</v>
       </c>
       <c r="G120">
-        <v>0.0049</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="121">
@@ -3584,19 +3572,19 @@
         </is>
       </c>
       <c r="C121">
-        <v>17.712</v>
+        <v>1.561</v>
       </c>
       <c r="D121">
-        <v>3.225</v>
+        <v>0.325</v>
       </c>
       <c r="E121">
-        <v>97.28</v>
+        <v>7.492</v>
       </c>
       <c r="F121">
-        <v>3.307</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="G121">
-        <v>0.0009</v>
+        <v>0.5776</v>
       </c>
     </row>
     <row r="122">
@@ -3620,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>-9.435014123000678E+16</v>
+        <v>-4.564265272634046E+20</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -3638,19 +3626,19 @@
         </is>
       </c>
       <c r="C123">
-        <v>4.213</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="D123">
-        <v>0.954</v>
+        <v>0.163</v>
       </c>
       <c r="E123">
-        <v>18.598</v>
+        <v>2.886</v>
       </c>
       <c r="F123">
-        <v>1.898</v>
+        <v>-0.516</v>
       </c>
       <c r="G123">
-        <v>0.0577</v>
+        <v>0.6061</v>
       </c>
     </row>
     <row r="124">
@@ -3665,19 +3653,19 @@
         </is>
       </c>
       <c r="C124">
-        <v>1.134</v>
+        <v>2.943</v>
       </c>
       <c r="D124">
-        <v>0.352</v>
+        <v>0.974</v>
       </c>
       <c r="E124">
-        <v>3.656</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="F124">
-        <v>0.211</v>
+        <v>1.914</v>
       </c>
       <c r="G124">
-        <v>0.8326</v>
+        <v>0.0557</v>
       </c>
     </row>
     <row r="125">
@@ -3692,19 +3680,19 @@
         </is>
       </c>
       <c r="C125">
-        <v>0.664</v>
+        <v>1.648</v>
       </c>
       <c r="D125">
-        <v>0.173</v>
+        <v>0.496</v>
       </c>
       <c r="E125">
-        <v>2.549</v>
+        <v>5.473</v>
       </c>
       <c r="F125">
-        <v>-0.596</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="G125">
-        <v>0.5512</v>
+        <v>0.4148</v>
       </c>
     </row>
     <row r="126">
@@ -3719,19 +3707,19 @@
         </is>
       </c>
       <c r="C126">
-        <v>0.413</v>
+        <v>0.62</v>
       </c>
       <c r="D126">
-        <v>0.262</v>
+        <v>0.42</v>
       </c>
       <c r="E126">
-        <v>0.653</v>
+        <v>0.916</v>
       </c>
       <c r="F126">
-        <v>-3.789</v>
+        <v>-2.403</v>
       </c>
       <c r="G126">
-        <v>0.0002</v>
+        <v>0.0163</v>
       </c>
     </row>
     <row r="127">
@@ -3746,19 +3734,19 @@
         </is>
       </c>
       <c r="C127">
-        <v>1.328</v>
+        <v>1.305</v>
       </c>
       <c r="D127">
-        <v>0.91</v>
+        <v>0.925</v>
       </c>
       <c r="E127">
-        <v>1.94</v>
+        <v>1.843</v>
       </c>
       <c r="F127">
-        <v>1.47</v>
+        <v>1.516</v>
       </c>
       <c r="G127">
-        <v>0.1416</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="128">
@@ -3773,19 +3761,19 @@
         </is>
       </c>
       <c r="C128">
-        <v>0.787</v>
+        <v>0.593</v>
       </c>
       <c r="D128">
-        <v>0.529</v>
+        <v>0.418</v>
       </c>
       <c r="E128">
-        <v>1.173</v>
+        <v>0.841</v>
       </c>
       <c r="F128">
-        <v>-1.176</v>
+        <v>-2.93</v>
       </c>
       <c r="G128">
-        <v>0.2394</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="129">
@@ -3800,19 +3788,19 @@
         </is>
       </c>
       <c r="C129">
-        <v>1.065</v>
+        <v>1.096</v>
       </c>
       <c r="D129">
-        <v>0.741</v>
+        <v>0.795</v>
       </c>
       <c r="E129">
-        <v>1.532</v>
+        <v>1.511</v>
       </c>
       <c r="F129">
-        <v>0.341</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G129">
-        <v>0.7332</v>
+        <v>0.5765</v>
       </c>
     </row>
     <row r="130">
@@ -3827,19 +3815,19 @@
         </is>
       </c>
       <c r="C130">
-        <v>1.121</v>
+        <v>1.069</v>
       </c>
       <c r="D130">
-        <v>0.784</v>
+        <v>0.78</v>
       </c>
       <c r="E130">
-        <v>1.604</v>
+        <v>1.466</v>
       </c>
       <c r="F130">
-        <v>0.628</v>
+        <v>0.414</v>
       </c>
       <c r="G130">
-        <v>0.5302</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="131">
@@ -3854,19 +3842,19 @@
         </is>
       </c>
       <c r="C131">
-        <v>1.834</v>
+        <v>1.271</v>
       </c>
       <c r="D131">
-        <v>1.233</v>
+        <v>0.864</v>
       </c>
       <c r="E131">
-        <v>2.727</v>
+        <v>1.869</v>
       </c>
       <c r="F131">
-        <v>2.995</v>
+        <v>1.218</v>
       </c>
       <c r="G131">
-        <v>0.0027</v>
+        <v>0.2233</v>
       </c>
     </row>
     <row r="132">
@@ -3881,19 +3869,19 @@
         </is>
       </c>
       <c r="C132">
-        <v>1.003</v>
+        <v>1.075</v>
       </c>
       <c r="D132">
-        <v>0.694</v>
+        <v>0.788</v>
       </c>
       <c r="E132">
-        <v>1.448</v>
+        <v>1.468</v>
       </c>
       <c r="F132">
-        <v>0.014</v>
+        <v>0.458</v>
       </c>
       <c r="G132">
-        <v>0.989</v>
+        <v>0.6472</v>
       </c>
     </row>
     <row r="133">
@@ -3908,19 +3896,19 @@
         </is>
       </c>
       <c r="C133">
-        <v>1.111</v>
+        <v>1.008</v>
       </c>
       <c r="D133">
-        <v>0.82</v>
+        <v>0.781</v>
       </c>
       <c r="E133">
-        <v>1.505</v>
+        <v>1.302</v>
       </c>
       <c r="F133">
-        <v>0.679</v>
+        <v>0.063</v>
       </c>
       <c r="G133">
-        <v>0.497</v>
+        <v>0.9498</v>
       </c>
     </row>
     <row r="134">
@@ -3935,19 +3923,19 @@
         </is>
       </c>
       <c r="C134">
-        <v>0.873</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D134">
-        <v>0.664</v>
+        <v>0.739</v>
       </c>
       <c r="E134">
-        <v>1.148</v>
+        <v>1.18</v>
       </c>
       <c r="F134">
-        <v>-0.972</v>
+        <v>-0.572</v>
       </c>
       <c r="G134">
-        <v>0.3312</v>
+        <v>0.5671</v>
       </c>
     </row>
     <row r="135">
@@ -3962,19 +3950,19 @@
         </is>
       </c>
       <c r="C135">
-        <v>3.012</v>
+        <v>2.203</v>
       </c>
       <c r="D135">
-        <v>1.261</v>
+        <v>1.059</v>
       </c>
       <c r="E135">
-        <v>7.197</v>
+        <v>4.581</v>
       </c>
       <c r="F135">
-        <v>2.482</v>
+        <v>2.114</v>
       </c>
       <c r="G135">
-        <v>0.0131</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="136">
@@ -3989,19 +3977,19 @@
         </is>
       </c>
       <c r="C136">
-        <v>8.263999999999999</v>
+        <v>1.433</v>
       </c>
       <c r="D136">
-        <v>2.12</v>
+        <v>0.379</v>
       </c>
       <c r="E136">
-        <v>32.21</v>
+        <v>5.415</v>
       </c>
       <c r="F136">
-        <v>3.043</v>
+        <v>0.53</v>
       </c>
       <c r="G136">
-        <v>0.0023</v>
+        <v>0.5961</v>
       </c>
     </row>
     <row r="137">
@@ -4016,19 +4004,19 @@
         </is>
       </c>
       <c r="C137">
-        <v>12.989</v>
+        <v>4.398</v>
       </c>
       <c r="D137">
-        <v>1.047</v>
+        <v>1.092</v>
       </c>
       <c r="E137">
-        <v>161.11</v>
+        <v>17.715</v>
       </c>
       <c r="F137">
-        <v>1.996</v>
+        <v>2.084</v>
       </c>
       <c r="G137">
-        <v>0.046</v>
+        <v>0.0372</v>
       </c>
     </row>
     <row r="138">
@@ -4043,19 +4031,19 @@
         </is>
       </c>
       <c r="C138">
-        <v>0.354</v>
+        <v>0.418</v>
       </c>
       <c r="D138">
-        <v>0.041</v>
+        <v>0.055</v>
       </c>
       <c r="E138">
-        <v>3.05</v>
+        <v>3.174</v>
       </c>
       <c r="F138">
-        <v>-0.945</v>
+        <v>-0.843</v>
       </c>
       <c r="G138">
-        <v>0.3446</v>
+        <v>0.3992</v>
       </c>
     </row>
     <row r="139">
@@ -4070,19 +4058,19 @@
         </is>
       </c>
       <c r="C139">
-        <v>3.816</v>
+        <v>1.091</v>
       </c>
       <c r="D139">
-        <v>1.246</v>
+        <v>0.4</v>
       </c>
       <c r="E139">
-        <v>11.684</v>
+        <v>2.977</v>
       </c>
       <c r="F139">
-        <v>2.346</v>
+        <v>0.169</v>
       </c>
       <c r="G139">
-        <v>0.019</v>
+        <v>0.8655</v>
       </c>
     </row>
     <row r="140">
@@ -4097,19 +4085,19 @@
         </is>
       </c>
       <c r="C140">
-        <v>2.415</v>
+        <v>0.836</v>
       </c>
       <c r="D140">
-        <v>0.831</v>
+        <v>0.309</v>
       </c>
       <c r="E140">
-        <v>7.023</v>
+        <v>2.264</v>
       </c>
       <c r="F140">
-        <v>1.619</v>
+        <v>-0.351</v>
       </c>
       <c r="G140">
-        <v>0.1054</v>
+        <v>0.7252999999999999</v>
       </c>
     </row>
     <row r="141">
@@ -4124,16 +4112,16 @@
         </is>
       </c>
       <c r="C141">
-        <v>1.023</v>
+        <v>1.022</v>
       </c>
       <c r="D141">
-        <v>1.012</v>
+        <v>1.013</v>
       </c>
       <c r="E141">
-        <v>1.034</v>
+        <v>1.03</v>
       </c>
       <c r="F141">
-        <v>4.244</v>
+        <v>4.966</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4296,260 +4284,260 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.067</v>
+        <v>10.963</v>
       </c>
       <c r="B2">
-        <v>1.14</v>
+        <v>0.986</v>
       </c>
       <c r="C2">
-        <v>1.099</v>
+        <v>0.755</v>
       </c>
       <c r="D2">
-        <v>0.444</v>
+        <v>1.506</v>
       </c>
       <c r="E2">
-        <v>1.381</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="F2">
-        <v>1.173</v>
+        <v>1.034</v>
       </c>
       <c r="G2">
-        <v>1.237</v>
+        <v>0.952</v>
       </c>
       <c r="H2">
-        <v>0.505</v>
+        <v>1.078</v>
       </c>
       <c r="I2">
-        <v>1.063</v>
+        <v>0.904</v>
       </c>
       <c r="J2">
-        <v>0.919</v>
+        <v>1.074</v>
       </c>
       <c r="K2">
-        <v>1.002</v>
+        <v>0.999</v>
       </c>
       <c r="L2">
-        <v>24.623</v>
+        <v>0.495</v>
       </c>
       <c r="M2">
-        <v>3.185</v>
+        <v>1.614</v>
       </c>
       <c r="N2">
-        <v>15.619</v>
+        <v>0.432</v>
       </c>
       <c r="O2">
-        <v>5.853</v>
+        <v>1.778</v>
       </c>
       <c r="P2">
-        <v>0.231</v>
+        <v>2.542</v>
       </c>
       <c r="Q2">
-        <v>0.591</v>
+        <v>1.281</v>
       </c>
       <c r="R2">
-        <v>5.465</v>
+        <v>0.326</v>
       </c>
       <c r="S2">
-        <v>0.501</v>
+        <v>2.655</v>
       </c>
       <c r="T2">
-        <v>0.643</v>
+        <v>0.726</v>
       </c>
       <c r="U2">
-        <v>1.581</v>
+        <v>0.551</v>
       </c>
       <c r="V2">
-        <v>2.538</v>
+        <v>3.361</v>
       </c>
       <c r="W2">
-        <v>15.655</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="X2">
-        <v>4.487</v>
+        <v>0.172</v>
       </c>
       <c r="Y2">
-        <v>153087372605.637</v>
+        <v>0.001</v>
       </c>
       <c r="Z2">
-        <v>2.601</v>
+        <v>0.164</v>
       </c>
       <c r="AA2">
-        <v>3.133</v>
+        <v>0.285</v>
       </c>
       <c r="AB2">
-        <v>3.196</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.08400000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="B3">
-        <v>1.016</v>
+        <v>1.119</v>
       </c>
       <c r="C3">
-        <v>1.33</v>
+        <v>0.824</v>
       </c>
       <c r="D3">
-        <v>0.668</v>
+        <v>0.665</v>
       </c>
       <c r="E3">
-        <v>1.441</v>
+        <v>0.961</v>
       </c>
       <c r="F3">
-        <v>0.969</v>
+        <v>1.21</v>
       </c>
       <c r="G3">
-        <v>1.05</v>
+        <v>1.173</v>
       </c>
       <c r="H3">
-        <v>0.9330000000000001</v>
+        <v>0.541</v>
       </c>
       <c r="I3">
-        <v>1.102</v>
+        <v>0.966</v>
       </c>
       <c r="J3">
-        <v>0.9350000000000001</v>
+        <v>0.981</v>
       </c>
       <c r="K3">
         <v>1.001</v>
       </c>
       <c r="L3">
-        <v>1.994</v>
+        <v>11.964</v>
       </c>
       <c r="M3">
-        <v>0.627</v>
+        <v>4.877</v>
       </c>
       <c r="N3">
-        <v>2.32</v>
+        <v>6.443</v>
       </c>
       <c r="O3">
-        <v>0.5679999999999999</v>
+        <v>10.065</v>
       </c>
       <c r="P3">
-        <v>0.393</v>
+        <v>0.578</v>
       </c>
       <c r="Q3">
-        <v>0.819</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="R3">
-        <v>2.96</v>
+        <v>1.811</v>
       </c>
       <c r="S3">
-        <v>0.382</v>
+        <v>1.301</v>
       </c>
       <c r="T3">
-        <v>1.369</v>
+        <v>0.472</v>
       </c>
       <c r="U3">
-        <v>1.831</v>
+        <v>0.851</v>
       </c>
       <c r="V3">
-        <v>0.298</v>
+        <v>8.507999999999999</v>
       </c>
       <c r="W3">
-        <v>11.458</v>
+        <v>1.342</v>
       </c>
       <c r="X3">
-        <v>5.81</v>
+        <v>0.768</v>
       </c>
       <c r="Y3">
-        <v>0.004</v>
+        <v>81418307735821.28</v>
       </c>
       <c r="Z3">
-        <v>6.118</v>
+        <v>0.423</v>
       </c>
       <c r="AA3">
-        <v>3.481</v>
+        <v>0.893</v>
       </c>
       <c r="AB3">
-        <v>2.882</v>
+        <v>1.099</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.08799999999999999</v>
+        <v>1.049</v>
       </c>
       <c r="B4">
-        <v>1.014</v>
+        <v>0.998</v>
       </c>
       <c r="C4">
-        <v>0.749</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="D4">
-        <v>0.649</v>
+        <v>0.971</v>
       </c>
       <c r="E4">
-        <v>1.385</v>
+        <v>0.962</v>
       </c>
       <c r="F4">
-        <v>1.167</v>
+        <v>1.203</v>
       </c>
       <c r="G4">
-        <v>1.205</v>
+        <v>1.148</v>
       </c>
       <c r="H4">
-        <v>1.169</v>
+        <v>1.254</v>
       </c>
       <c r="I4">
-        <v>1.208</v>
+        <v>1.099</v>
       </c>
       <c r="J4">
-        <v>0.776</v>
+        <v>0.829</v>
       </c>
       <c r="K4">
-        <v>0.98</v>
+        <v>0.979</v>
       </c>
       <c r="L4">
-        <v>4.008</v>
+        <v>2.025</v>
       </c>
       <c r="M4">
-        <v>0.96</v>
+        <v>1.536</v>
       </c>
       <c r="N4">
-        <v>2.603</v>
+        <v>1.111</v>
       </c>
       <c r="O4">
-        <v>2.3</v>
+        <v>4.081</v>
       </c>
       <c r="P4">
-        <v>0.6899999999999999</v>
+        <v>1.709</v>
       </c>
       <c r="Q4">
-        <v>0.08699999999999999</v>
+        <v>0.101</v>
       </c>
       <c r="R4">
-        <v>3.256</v>
+        <v>1.101</v>
       </c>
       <c r="S4">
-        <v>1.072</v>
+        <v>2.813</v>
       </c>
       <c r="T4">
-        <v>4.456</v>
+        <v>3.286</v>
       </c>
       <c r="U4">
-        <v>1.184</v>
+        <v>0.639</v>
       </c>
       <c r="V4">
-        <v>1.726</v>
+        <v>5.847</v>
       </c>
       <c r="W4">
-        <v>12.588</v>
+        <v>1.082</v>
       </c>
       <c r="X4">
-        <v>5.833</v>
+        <v>1.004</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>3.018</v>
+        <v>0.5</v>
       </c>
       <c r="AA4">
-        <v>1.528</v>
+        <v>0.439</v>
       </c>
       <c r="AB4">
-        <v>1.379</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="5">
@@ -4557,34 +4545,34 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>2181.536</v>
+        <v>2980.475</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03</v>
+        <v>0.042</v>
       </c>
       <c r="E5">
-        <v>2.525</v>
+        <v>1.271</v>
       </c>
       <c r="F5">
-        <v>5637.246</v>
+        <v>53806.117</v>
       </c>
       <c r="G5">
-        <v>0.038</v>
+        <v>0.003</v>
       </c>
       <c r="H5">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I5">
-        <v>0.063</v>
+        <v>0.079</v>
       </c>
       <c r="J5">
-        <v>28.801</v>
+        <v>27.41</v>
       </c>
       <c r="K5">
-        <v>1.079</v>
+        <v>1.096</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4593,19 +4581,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1806111.359</v>
+        <v>24577606.585</v>
       </c>
       <c r="O5">
-        <v>27408059.455</v>
+        <v>37380665024.498</v>
       </c>
       <c r="P5">
-        <v>67730746.295</v>
+        <v>228667404503.203</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>2563073123260644</v>
+        <v>7484363317335.847</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -4620,108 +4608,108 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>1.208679604569791E+26</v>
+        <v>6.482571924573497E+18</v>
       </c>
       <c r="X5">
-        <v>80.598</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>16.981</v>
+        <v>34.688</v>
       </c>
       <c r="Z5">
-        <v>35440077684828.13</v>
+        <v>2326.607</v>
       </c>
       <c r="AA5">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>337010830694.266</v>
+        <v>44930975500867.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.007</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="B6">
-        <v>1.328</v>
+        <v>1.305</v>
       </c>
       <c r="C6">
-        <v>0.787</v>
+        <v>0.593</v>
       </c>
       <c r="D6">
-        <v>0.413</v>
+        <v>0.62</v>
       </c>
       <c r="E6">
-        <v>1.834</v>
+        <v>1.271</v>
       </c>
       <c r="F6">
-        <v>1.065</v>
+        <v>1.096</v>
       </c>
       <c r="G6">
-        <v>1.121</v>
+        <v>1.069</v>
       </c>
       <c r="H6">
-        <v>1.003</v>
+        <v>1.075</v>
       </c>
       <c r="I6">
-        <v>1.111</v>
+        <v>1.008</v>
       </c>
       <c r="J6">
-        <v>0.873</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="K6">
-        <v>1.023</v>
+        <v>1.022</v>
       </c>
       <c r="L6">
-        <v>11.052</v>
+        <v>5.589</v>
       </c>
       <c r="M6">
-        <v>1.796</v>
+        <v>2.88</v>
       </c>
       <c r="N6">
-        <v>4.005</v>
+        <v>1.716</v>
       </c>
       <c r="O6">
-        <v>2.337</v>
+        <v>4.14</v>
       </c>
       <c r="P6">
-        <v>0.664</v>
+        <v>1.648</v>
       </c>
       <c r="Q6">
-        <v>0.354</v>
+        <v>0.418</v>
       </c>
       <c r="R6">
-        <v>12.989</v>
+        <v>4.398</v>
       </c>
       <c r="S6">
-        <v>1.134</v>
+        <v>2.943</v>
       </c>
       <c r="T6">
-        <v>3.012</v>
+        <v>2.203</v>
       </c>
       <c r="U6">
-        <v>2.071</v>
+        <v>1.124</v>
       </c>
       <c r="V6">
-        <v>1.56</v>
+        <v>5.232</v>
       </c>
       <c r="W6">
-        <v>17.712</v>
+        <v>1.561</v>
       </c>
       <c r="X6">
-        <v>8.263999999999999</v>
+        <v>1.433</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>4.213</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="AA6">
-        <v>3.816</v>
+        <v>1.091</v>
       </c>
       <c r="AB6">
-        <v>2.415</v>
+        <v>0.836</v>
       </c>
     </row>
   </sheetData>
